--- a/Data/Weather/Data collector 20201215.xlsx
+++ b/Data/Weather/Data collector 20201215.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,114 +430,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.1 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.3 </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.1 </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.3 </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.00 </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.3 </t>
+          <t xml:space="preserve">1009.1 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.5 </t>
+          <t xml:space="preserve">1019.3 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.0 </t>
+          <t xml:space="preserve">13.1 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.1 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.9 </t>
+          <t xml:space="preserve">5.3 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -597,29 +597,29 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.2 </t>
+          <t xml:space="preserve">1009.3 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.4 </t>
+          <t xml:space="preserve">1019.5 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.3 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,29 +629,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t xml:space="preserve">10 </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.9 </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t xml:space="preserve">20 </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6.5 </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20 </t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0 </t>
@@ -674,7 +674,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.6 </t>
+          <t xml:space="preserve">1009.2 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.8 </t>
+          <t xml:space="preserve">1019.4 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">12.8 </t>
+          <t xml:space="preserve">13.0 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2 </t>
+          <t xml:space="preserve">6.5 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -778,27 +778,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.7 </t>
+          <t xml:space="preserve">1009.6 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.9 </t>
+          <t xml:space="preserve">1019.8 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.0 </t>
+          <t xml:space="preserve">12.8 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.5 </t>
+          <t xml:space="preserve">5.2 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -858,29 +858,29 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.4 </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.6 </t>
+          <t xml:space="preserve">1019.9 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -895,24 +895,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.3 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t xml:space="preserve">10 </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.5 </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t xml:space="preserve">20 </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5.8 </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 </t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0 </t>
@@ -925,7 +925,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -945,34 +945,34 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.5 </t>
+          <t xml:space="preserve">1010.4 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.7 </t>
+          <t xml:space="preserve">1020.6 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.3 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">12.8 </t>
+          <t xml:space="preserve">13.0 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -982,22 +982,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 </t>
+          <t xml:space="preserve">2.3 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.0 </t>
+          <t xml:space="preserve">5.8 </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1039,32 +1039,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.2 </t>
+          <t xml:space="preserve">1010.5 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1021.4 </t>
+          <t xml:space="preserve">1020.7 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.0 </t>
+          <t xml:space="preserve">12.8 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.7 </t>
+          <t xml:space="preserve">6.0 </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.06 </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1119,49 +1119,49 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.7 </t>
+          <t xml:space="preserve">1011.2 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1021.9 </t>
+          <t xml:space="preserve">1021.4 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.3 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.0 </t>
+          <t xml:space="preserve">13.0 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.2 </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.79 </t>
+          <t xml:space="preserve">0.06 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1201,64 +1201,64 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.0 </t>
+          <t xml:space="preserve">6.0 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.1 </t>
+          <t xml:space="preserve">1011.7 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1021.2 </t>
+          <t xml:space="preserve">1021.9 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.8 </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.0 </t>
+          <t xml:space="preserve">14.0 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">74 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.3 </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.3 </t>
+          <t xml:space="preserve">7.7 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1273,79 +1273,79 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.65 </t>
+          <t xml:space="preserve">0.79 </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">7.0 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.5 </t>
+          <t xml:space="preserve">1011.1 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.6 </t>
+          <t xml:space="preserve">1021.2 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.7 </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.4 </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">72 </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.5 </t>
+          <t xml:space="preserve">2.3 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2 </t>
+          <t xml:space="preserve">6.3 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1365,74 +1365,74 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.08 </t>
+          <t xml:space="preserve">1.65 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.3 </t>
+          <t xml:space="preserve">1010.5 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.3 </t>
+          <t xml:space="preserve">1020.6 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.4 </t>
+          <t xml:space="preserve">20.7 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.1 </t>
+          <t xml:space="preserve">15.4 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">68 </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.0 </t>
+          <t xml:space="preserve">5.2 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">280 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1447,49 +1447,49 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.82 </t>
+          <t xml:space="preserve">2.08 </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">8.0 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.4 </t>
+          <t xml:space="preserve">1009.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1018.4 </t>
+          <t xml:space="preserve">1019.3 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.7 </t>
+          <t xml:space="preserve">22.4 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1499,27 +1499,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">68 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.8 </t>
+          <t xml:space="preserve">5.0 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">280 </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.30 </t>
+          <t xml:space="preserve">1.82 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1561,37 +1561,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.6 </t>
+          <t xml:space="preserve">1008.4 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.6 </t>
+          <t xml:space="preserve">1018.4 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.4 </t>
+          <t xml:space="preserve">22.7 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.5 </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.7 </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">300 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1626,29 +1626,29 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.01 </t>
+          <t xml:space="preserve">2.30 </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.1 </t>
+          <t xml:space="preserve">21.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.2 </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.9 </t>
+          <t xml:space="preserve">2.7 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.0 </t>
+          <t xml:space="preserve">7.8 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">300 </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1713,59 +1713,59 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.41 </t>
+          <t xml:space="preserve">2.01 </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.0 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.8 </t>
+          <t xml:space="preserve">1007.6 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.9 </t>
+          <t xml:space="preserve">1017.6 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.6 </t>
+          <t xml:space="preserve">21.1 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.1 </t>
+          <t xml:space="preserve">15.2 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.0 </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1775,12 +1775,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.5 </t>
+          <t xml:space="preserve">8.0 </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.69 </t>
+          <t xml:space="preserve">1.41 </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1822,52 +1822,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.6 </t>
+          <t xml:space="preserve">1007.8 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1018.7 </t>
+          <t xml:space="preserve">1017.9 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.5 </t>
+          <t xml:space="preserve">19.6 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.7 </t>
+          <t xml:space="preserve">14.1 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">74 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.2 </t>
+          <t xml:space="preserve">3.0 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.6 </t>
+          <t xml:space="preserve">8.5 </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">320 </t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1882,79 +1882,79 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.00 </t>
+          <t xml:space="preserve">0.69 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.3 </t>
+          <t xml:space="preserve">1008.6 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1019.5 </t>
+          <t xml:space="preserve">1018.7 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.9 </t>
+          <t xml:space="preserve">18.5 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.5 </t>
+          <t xml:space="preserve">13.7 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.1 </t>
+          <t xml:space="preserve">7.6 </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">320 </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1989,59 +1989,59 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.1 </t>
+          <t xml:space="preserve">1009.3 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.3 </t>
+          <t xml:space="preserve">1019.5 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.5 </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">13.4 </t>
+          <t xml:space="preserve">13.5 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.1 </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.7 </t>
+          <t xml:space="preserve">7.1 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2083,22 +2083,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.5 </t>
+          <t xml:space="preserve">1010.1 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.7 </t>
+          <t xml:space="preserve">1020.3 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2108,27 +2108,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">78 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.7 </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.0 </t>
+          <t xml:space="preserve">6.7 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.6 </t>
+          <t xml:space="preserve">1010.5 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.8 </t>
+          <t xml:space="preserve">1020.7 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.2 </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">2.7 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.7 </t>
+          <t xml:space="preserve">7.0 </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">17.2 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2287,22 +2287,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.0 </t>
+          <t xml:space="preserve">5.7 </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2337,29 +2337,29 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.3 </t>
+          <t xml:space="preserve">1010.6 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020.5 </t>
+          <t xml:space="preserve">1020.8 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.2 </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2374,22 +2374,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2 </t>
+          <t xml:space="preserve">5.0 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2424,92 +2424,179 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1010.3 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1020.5 </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.2 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13.4 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.5 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.2 </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360 </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.00 </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15.0 </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1010.2 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">1020.4 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">17.3 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">13.5 </t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">78 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">1.7 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">360 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve">4.8 </t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t xml:space="preserve">350 </t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t xml:space="preserve">0.00 </t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -2526,7 +2613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,94 +2624,94 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.5 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.0 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">86 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">24 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2639,7 +2726,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.7 </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2649,17 +2736,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">87 </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.8 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
+          <t xml:space="preserve">24 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2711,12 +2798,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.6 </t>
+          <t xml:space="preserve">992.5 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2736,17 +2823,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">86 </t>
+          <t xml:space="preserve">87 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.3 </t>
+          <t xml:space="preserve">1.8 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">23 </t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2798,12 +2885,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.9 </t>
+          <t xml:space="preserve">992.6 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2823,17 +2910,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">2.3 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">32 </t>
+          <t xml:space="preserve">23 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2885,7 +2972,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2900,7 +2987,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.4 </t>
+          <t xml:space="preserve">14.7 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2910,17 +2997,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">87 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 </t>
+          <t xml:space="preserve">32 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2972,12 +3059,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.8 </t>
+          <t xml:space="preserve">992.9 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2987,7 +3074,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.6 </t>
+          <t xml:space="preserve">14.4 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2997,17 +3084,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">86 </t>
+          <t xml:space="preserve">87 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 </t>
+          <t xml:space="preserve">25 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3059,12 +3146,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.1 </t>
+          <t xml:space="preserve">993.8 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3074,7 +3161,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.5 </t>
+          <t xml:space="preserve">14.6 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3089,12 +3176,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">357 </t>
+          <t xml:space="preserve">16 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3146,12 +3233,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.5 </t>
+          <t xml:space="preserve">994.1 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3161,7 +3248,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.0 </t>
+          <t xml:space="preserve">14.5 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3171,17 +3258,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.7 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3233,12 +3320,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">995.1 </t>
+          <t xml:space="preserve">994.5 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3248,7 +3335,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.6 </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3258,7 +3345,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3268,7 +3355,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 </t>
+          <t xml:space="preserve">16 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3320,12 +3407,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.5 </t>
+          <t xml:space="preserve">995.1 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3335,7 +3422,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.7 </t>
+          <t xml:space="preserve">15.6 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3345,17 +3432,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.4 </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">25 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3407,12 +3494,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.0 </t>
+          <t xml:space="preserve">994.5 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3422,7 +3509,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.3 </t>
+          <t xml:space="preserve">17.7 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3432,12 +3519,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">68 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3494,12 +3581,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.9 </t>
+          <t xml:space="preserve">994.0 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3509,7 +3596,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.1 </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3519,17 +3606,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">68 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3581,12 +3668,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.0 </t>
+          <t xml:space="preserve">992.9 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3596,7 +3683,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.4 </t>
+          <t xml:space="preserve">19.1 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3606,17 +3693,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">63 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">336 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3668,12 +3755,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">991.3 </t>
+          <t xml:space="preserve">992.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3683,7 +3770,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.5 </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3693,7 +3780,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">63 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3703,7 +3790,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">342 </t>
+          <t xml:space="preserve">336 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3755,12 +3842,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">991.3 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3770,7 +3857,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">19.5 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3780,17 +3867,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">342 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3842,12 +3929,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">991.4 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3857,7 +3944,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.3 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3867,17 +3954,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.7 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3929,12 +4016,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.2 </t>
+          <t xml:space="preserve">991.4 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3944,7 +4031,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3954,7 +4041,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3964,7 +4051,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4016,12 +4103,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.9 </t>
+          <t xml:space="preserve">992.2 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4031,7 +4118,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.1 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4041,17 +4128,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">351 </t>
+          <t xml:space="preserve">26 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4103,12 +4190,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.5 </t>
+          <t xml:space="preserve">992.9 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4118,7 +4205,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.6 </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4128,17 +4215,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 </t>
+          <t xml:space="preserve">351 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4190,12 +4277,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.1 </t>
+          <t xml:space="preserve">993.5 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4205,7 +4292,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.3 </t>
+          <t xml:space="preserve">15.6 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4215,17 +4302,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.8 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t xml:space="preserve">18 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4277,12 +4364,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.0 </t>
+          <t xml:space="preserve">994.1 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4302,12 +4389,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.9 </t>
+          <t xml:space="preserve">1.8 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4364,12 +4451,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.1 </t>
+          <t xml:space="preserve">994.0 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4379,7 +4466,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.5 </t>
+          <t xml:space="preserve">15.3 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4389,17 +4476,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5 </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">348 </t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4451,12 +4538,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.6 </t>
+          <t xml:space="preserve">994.1 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4466,7 +4553,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.3 </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4476,17 +4563,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">40 </t>
+          <t xml:space="preserve">348 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4538,85 +4625,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">993.6 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15.3 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.6 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">993.5 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">15.4 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">84 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">1.5 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">24 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -4633,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4644,99 +4818,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">998.6 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">998.7 </t>
+          <t xml:space="preserve">998.6 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4746,7 +4920,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4756,17 +4930,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 </t>
+          <t xml:space="preserve">36 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4818,7 +4992,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4833,7 +5007,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.7 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4843,17 +5017,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4905,12 +5079,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.0 </t>
+          <t xml:space="preserve">998.7 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4935,12 +5109,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4992,7 +5166,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5007,7 +5181,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5017,17 +5191,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">18 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5079,12 +5253,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.8 </t>
+          <t xml:space="preserve">999.0 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5094,7 +5268,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5104,17 +5278,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">54 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5166,12 +5340,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.1 </t>
+          <t xml:space="preserve">999.8 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5181,7 +5355,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5191,17 +5365,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">300 </t>
+          <t xml:space="preserve">54 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5253,12 +5427,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.6 </t>
+          <t xml:space="preserve">1000.1 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5268,7 +5442,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5278,17 +5452,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 </t>
+          <t xml:space="preserve">300 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5340,12 +5514,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1001.2 </t>
+          <t xml:space="preserve">1000.6 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5355,7 +5529,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.4 </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5365,17 +5539,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">42 </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5427,12 +5601,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.8 </t>
+          <t xml:space="preserve">1001.2 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5442,7 +5616,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.1 </t>
+          <t xml:space="preserve">18.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5452,17 +5626,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 </t>
+          <t xml:space="preserve">42 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5514,12 +5688,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.3 </t>
+          <t xml:space="preserve">1000.8 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5529,7 +5703,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.0 </t>
+          <t xml:space="preserve">20.1 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5539,17 +5713,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">299 </t>
+          <t xml:space="preserve">8 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5564,7 +5738,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">X </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -5601,12 +5775,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.3 </t>
+          <t xml:space="preserve">1000.3 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5616,7 +5790,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.9 </t>
+          <t xml:space="preserve">21.0 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5626,17 +5800,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">64 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">338 </t>
+          <t xml:space="preserve">299 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5651,7 +5825,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -5688,12 +5862,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">998.3 </t>
+          <t xml:space="preserve">999.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5703,7 +5877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.6 </t>
+          <t xml:space="preserve">21.9 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5713,17 +5887,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">65 </t>
+          <t xml:space="preserve">64 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">345 </t>
+          <t xml:space="preserve">338 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5775,12 +5949,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">997.5 </t>
+          <t xml:space="preserve">998.3 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5790,7 +5964,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.2 </t>
+          <t xml:space="preserve">21.6 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5800,17 +5974,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">307 </t>
+          <t xml:space="preserve">345 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5862,7 +6036,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5877,7 +6051,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.9 </t>
+          <t xml:space="preserve">21.2 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5887,7 +6061,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">68 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5897,7 +6071,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">32 </t>
+          <t xml:space="preserve">307 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -5949,12 +6123,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">997.6 </t>
+          <t xml:space="preserve">997.5 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5964,7 +6138,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">20.9 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5974,17 +6148,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">68 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">57 </t>
+          <t xml:space="preserve">32 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6036,12 +6210,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">998.3 </t>
+          <t xml:space="preserve">997.6 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6051,7 +6225,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.8 </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6061,17 +6235,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6123,12 +6297,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.0 </t>
+          <t xml:space="preserve">998.3 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6138,7 +6312,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.2 </t>
+          <t xml:space="preserve">18.8 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6148,17 +6322,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 </t>
+          <t xml:space="preserve">15 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6210,12 +6384,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.6 </t>
+          <t xml:space="preserve">999.0 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6225,7 +6399,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.9 </t>
+          <t xml:space="preserve">18.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6240,12 +6414,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6297,12 +6471,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.1 </t>
+          <t xml:space="preserve">999.6 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6312,7 +6486,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6322,17 +6496,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">82 </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 </t>
+          <t xml:space="preserve">36 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6384,7 +6558,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6399,7 +6573,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.5 </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -6414,12 +6588,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">53 </t>
+          <t xml:space="preserve">16 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6471,12 +6645,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000.2 </t>
+          <t xml:space="preserve">1000.1 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6486,7 +6660,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -6501,12 +6675,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">307 </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6558,12 +6732,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">999.8 </t>
+          <t xml:space="preserve">1000.2 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6573,7 +6747,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.4 </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6588,12 +6762,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">307 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6645,85 +6819,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">999.8 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.4 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.7 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">999.6 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">17.6 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">82 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">0.7 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">66 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -6740,7 +7001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6751,99 +7012,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.2 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.1 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">78 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.9 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.4 </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6853,7 +7114,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6868,12 +7129,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6925,7 +7186,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6955,7 +7216,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.7 </t>
+          <t xml:space="preserve">4.1 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7012,12 +7273,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.7 </t>
+          <t xml:space="preserve">1014.4 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7027,7 +7288,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.7 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -7042,12 +7303,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.7 </t>
+          <t xml:space="preserve">3.7 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">6 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7099,12 +7360,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.9 </t>
+          <t xml:space="preserve">1014.7 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7114,7 +7375,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -7124,12 +7385,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.7 </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7186,12 +7447,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.6 </t>
+          <t xml:space="preserve">1014.9 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7211,17 +7472,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 </t>
+          <t xml:space="preserve">3.7 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -7273,12 +7534,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.7 </t>
+          <t xml:space="preserve">1015.6 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7288,7 +7549,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7298,17 +7559,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.7 </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">359 </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7360,12 +7621,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.4 </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7375,7 +7636,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.1 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7385,17 +7646,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.2 </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">359 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7447,12 +7708,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.0 </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7462,7 +7723,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7472,17 +7733,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">73 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.0 </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7534,12 +7795,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.5 </t>
+          <t xml:space="preserve">1017.0 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7549,7 +7810,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.6 </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7559,17 +7820,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">65 </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 </t>
+          <t xml:space="preserve">5.0 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7621,12 +7882,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.0 </t>
+          <t xml:space="preserve">1016.5 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7636,7 +7897,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.4 </t>
+          <t xml:space="preserve">19.6 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7646,17 +7907,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 </t>
+          <t xml:space="preserve">4.1 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7708,12 +7969,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.9 </t>
+          <t xml:space="preserve">1016.0 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7723,7 +7984,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.5 </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7733,17 +7994,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.5 </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7795,12 +8056,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.0 </t>
+          <t xml:space="preserve">1014.9 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7810,7 +8071,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.4 </t>
+          <t xml:space="preserve">21.5 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7825,12 +8086,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.6 </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">345 </t>
+          <t xml:space="preserve">6 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7882,12 +8143,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.2 </t>
+          <t xml:space="preserve">1014.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7907,17 +8168,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 </t>
+          <t xml:space="preserve">5.6 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">345 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7969,12 +8230,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.0 </t>
+          <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7984,7 +8245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.9 </t>
+          <t xml:space="preserve">21.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7994,17 +8255,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.8 </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">359 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8056,12 +8317,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.3 </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8071,7 +8332,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.8 </t>
+          <t xml:space="preserve">20.9 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8081,17 +8342,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.1 </t>
+          <t xml:space="preserve">6.8 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">352 </t>
+          <t xml:space="preserve">359 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -8143,12 +8404,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.9 </t>
+          <t xml:space="preserve">1013.3 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8158,7 +8419,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.7 </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8168,17 +8429,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">70 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.9 </t>
+          <t xml:space="preserve">7.1 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">357 </t>
+          <t xml:space="preserve">352 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -8230,12 +8491,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.7 </t>
+          <t xml:space="preserve">1013.9 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8245,7 +8506,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.2 </t>
+          <t xml:space="preserve">18.7 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8255,17 +8516,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">72 </t>
+          <t xml:space="preserve">70 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.5 </t>
+          <t xml:space="preserve">4.9 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">359 </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -8317,12 +8578,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.3 </t>
+          <t xml:space="preserve">1014.7 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8332,7 +8593,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.7 </t>
+          <t xml:space="preserve">18.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8342,17 +8603,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">74 </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.4 </t>
+          <t xml:space="preserve">4.5 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">352 </t>
+          <t xml:space="preserve">359 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -8404,12 +8665,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.7 </t>
+          <t xml:space="preserve">1015.3 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8419,7 +8680,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.7 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8429,17 +8690,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.8 </t>
+          <t xml:space="preserve">5.4 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">352 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8491,12 +8752,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.8 </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8516,17 +8777,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.0 </t>
+          <t xml:space="preserve">4.8 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -8578,7 +8839,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8593,7 +8854,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.7 </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8603,17 +8864,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.6 </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">353 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8665,12 +8926,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.6 </t>
+          <t xml:space="preserve">1015.8 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8680,7 +8941,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.7 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8690,17 +8951,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.9 </t>
+          <t xml:space="preserve">4.6 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">353 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8752,85 +9013,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1015.6 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.6 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.9 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1015.4 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">17.5 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">77 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">3.4 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">355 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -8847,7 +9195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8858,99 +9206,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.7 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.8 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.9 </t>
+          <t xml:space="preserve">1012.7 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8960,7 +9308,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.7 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8970,17 +9318,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">87 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.3 </t>
+          <t xml:space="preserve">4.8 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">352 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9032,12 +9380,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.8 </t>
+          <t xml:space="preserve">1012.9 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9047,7 +9395,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9057,17 +9405,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">88 </t>
+          <t xml:space="preserve">87 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.4 </t>
+          <t xml:space="preserve">4.3 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">357 </t>
+          <t xml:space="preserve">352 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -9119,12 +9467,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.2 </t>
+          <t xml:space="preserve">1012.8 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9134,7 +9482,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -9144,17 +9492,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">88 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2 </t>
+          <t xml:space="preserve">4.4 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">351 </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -9206,12 +9554,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.4 </t>
+          <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9221,7 +9569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -9236,12 +9584,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.9 </t>
+          <t xml:space="preserve">5.2 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">351 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -9293,12 +9641,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.1 </t>
+          <t xml:space="preserve">1013.4 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9308,7 +9656,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9318,12 +9666,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">82 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.8 </t>
+          <t xml:space="preserve">4.9 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -9380,12 +9728,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.2 </t>
+          <t xml:space="preserve">1014.1 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9395,7 +9743,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9410,12 +9758,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.2 </t>
+          <t xml:space="preserve">3.8 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -9467,12 +9815,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.8 </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9482,7 +9830,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.7 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9492,17 +9840,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">82 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.8 </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">349 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -9554,12 +9902,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.2 </t>
+          <t xml:space="preserve">1014.8 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9569,7 +9917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.4 </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9579,17 +9927,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.7 </t>
+          <t xml:space="preserve">4.8 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 </t>
+          <t xml:space="preserve">349 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -9641,12 +9989,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.0 </t>
+          <t xml:space="preserve">1015.2 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9656,7 +10004,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.8 </t>
+          <t xml:space="preserve">17.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9666,17 +10014,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.1 </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 </t>
+          <t xml:space="preserve">8 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -9728,12 +10076,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.2 </t>
+          <t xml:space="preserve">1015.0 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9743,7 +10091,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">18.8 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -9753,17 +10101,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.4 </t>
+          <t xml:space="preserve">5.1 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">9 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9815,12 +10163,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.3 </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9830,7 +10178,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.9 </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -9840,17 +10188,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 </t>
+          <t xml:space="preserve">4.4 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">358 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -9902,12 +10250,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.3 </t>
+          <t xml:space="preserve">1013.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9917,7 +10265,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.5 </t>
+          <t xml:space="preserve">20.9 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -9927,17 +10275,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.1 </t>
+          <t xml:space="preserve">4.1 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">326 </t>
+          <t xml:space="preserve">358 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -9989,12 +10337,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.4 </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10004,7 +10352,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.8 </t>
+          <t xml:space="preserve">20.5 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -10014,17 +10362,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2 </t>
+          <t xml:space="preserve">5.1 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">337 </t>
+          <t xml:space="preserve">326 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10076,12 +10424,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.3 </t>
+          <t xml:space="preserve">1011.4 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10091,7 +10439,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.3 </t>
+          <t xml:space="preserve">20.8 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -10101,17 +10449,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.4 </t>
+          <t xml:space="preserve">5.2 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">346 </t>
+          <t xml:space="preserve">337 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -10163,12 +10511,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.6 </t>
+          <t xml:space="preserve">1011.3 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10178,7 +10526,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.8 </t>
+          <t xml:space="preserve">20.3 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -10188,17 +10536,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">63 </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.8 </t>
+          <t xml:space="preserve">7.4 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">353 </t>
+          <t xml:space="preserve">346 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -10250,12 +10598,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.3 </t>
+          <t xml:space="preserve">1011.6 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10265,7 +10613,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.7 </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -10275,12 +10623,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">63 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.7 </t>
+          <t xml:space="preserve">5.8 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -10337,12 +10685,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.0 </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10352,7 +10700,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.2 </t>
+          <t xml:space="preserve">18.7 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -10362,17 +10710,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.9 </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">353 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -10424,12 +10772,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.7 </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10439,7 +10787,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.5 </t>
+          <t xml:space="preserve">18.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -10449,17 +10797,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.1 </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">348 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -10511,12 +10859,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.1 </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10536,17 +10884,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.3 </t>
+          <t xml:space="preserve">5.1 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">349 </t>
+          <t xml:space="preserve">348 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -10598,12 +10946,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.2 </t>
+          <t xml:space="preserve">1014.1 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10628,12 +10976,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.9 </t>
+          <t xml:space="preserve">4.3 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">349 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -10685,12 +11033,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.4 </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10700,7 +11048,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.6 </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -10710,17 +11058,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.1 </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">347 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -10772,12 +11120,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.1 </t>
+          <t xml:space="preserve">1014.4 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10787,7 +11135,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -10797,17 +11145,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.0 </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">347 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -10859,85 +11207,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1014.1 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.3 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.0 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -10954,7 +11389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10965,99 +11400,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.1 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.2 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">89 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">353 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.4 </t>
+          <t xml:space="preserve">1015.1 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11067,7 +11502,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">17.2 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11077,17 +11512,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">93 </t>
+          <t xml:space="preserve">89 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.4 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">353 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11139,12 +11574,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.3 </t>
+          <t xml:space="preserve">1015.4 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11154,7 +11589,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -11169,12 +11604,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -11226,12 +11661,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.6 </t>
+          <t xml:space="preserve">1015.3 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11241,7 +11676,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11251,17 +11686,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">93 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">12 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -11313,12 +11748,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.8 </t>
+          <t xml:space="preserve">1015.6 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11328,7 +11763,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.1 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11338,7 +11773,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t xml:space="preserve">92 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -11348,7 +11783,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -11400,12 +11835,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.4 </t>
+          <t xml:space="preserve">1015.8 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11415,7 +11850,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11425,17 +11860,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -11487,12 +11922,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.5 </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11502,7 +11937,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11517,12 +11952,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">346 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -11574,12 +12009,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.2 </t>
+          <t xml:space="preserve">1016.5 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11589,7 +12024,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -11599,17 +12034,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">88 </t>
+          <t xml:space="preserve">92 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.7 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">355 </t>
+          <t xml:space="preserve">346 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -11661,12 +12096,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.9 </t>
+          <t xml:space="preserve">1017.2 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11676,7 +12111,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.8 </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -11686,17 +12121,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t xml:space="preserve">88 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">355 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -11748,12 +12183,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.3 </t>
+          <t xml:space="preserve">1017.9 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -11763,7 +12198,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">17.8 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11773,17 +12208,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -11835,12 +12270,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.6 </t>
+          <t xml:space="preserve">1017.3 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11850,7 +12285,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.1 </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -11860,17 +12295,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11922,12 +12357,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.3 </t>
+          <t xml:space="preserve">1016.6 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -11937,7 +12372,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.0 </t>
+          <t xml:space="preserve">22.1 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -11947,17 +12382,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">56 </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">323 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -12009,12 +12444,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.4 </t>
+          <t xml:space="preserve">1015.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12024,7 +12459,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.1 </t>
+          <t xml:space="preserve">23.0 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -12039,12 +12474,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">324 </t>
+          <t xml:space="preserve">323 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -12096,12 +12531,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.6 </t>
+          <t xml:space="preserve">1014.4 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12111,7 +12546,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.4 </t>
+          <t xml:space="preserve">23.1 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -12121,17 +12556,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">57 </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">324 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -12183,12 +12618,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.4 </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12198,7 +12633,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.2 </t>
+          <t xml:space="preserve">22.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12208,17 +12643,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">325 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -12270,12 +12705,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.7 </t>
+          <t xml:space="preserve">1013.4 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12285,7 +12720,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.3 </t>
+          <t xml:space="preserve">22.2 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -12295,17 +12730,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">325 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -12357,12 +12792,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.5 </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12372,7 +12807,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.7 </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -12382,17 +12817,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -12444,12 +12879,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.3 </t>
+          <t xml:space="preserve">1014.5 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -12459,7 +12894,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.7 </t>
+          <t xml:space="preserve">19.7 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -12469,7 +12904,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">74 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -12479,7 +12914,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -12531,12 +12966,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.0 </t>
+          <t xml:space="preserve">1015.3 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12546,7 +12981,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.3 </t>
+          <t xml:space="preserve">18.7 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12556,17 +12991,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.8 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -12618,12 +13053,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.4 </t>
+          <t xml:space="preserve">1016.0 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12633,7 +13068,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.1 </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12643,17 +13078,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.9 </t>
+          <t xml:space="preserve">1.8 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">357 </t>
+          <t xml:space="preserve">8 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -12705,12 +13140,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.7 </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12720,7 +13155,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.9 </t>
+          <t xml:space="preserve">18.1 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -12730,17 +13165,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -12792,7 +13227,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -12827,7 +13262,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">9 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -12879,12 +13314,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.4 </t>
+          <t xml:space="preserve">1016.7 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12894,7 +13329,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.8 </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12904,17 +13339,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -12966,85 +13401,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1016.4 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.8 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.8 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1016.2 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">17.5 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">83 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">1.2 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">9 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
